--- a/docs/计费软件功能导航.xlsx
+++ b/docs/计费软件功能导航.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>区域管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目添加、项目信息修改、项目结构建立（分级结构，包括小区、楼、单元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加热源厂、换热站、城市与行政区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人员添加/删除、权限管理、项目分配、密码恢复、登录日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按照总任务、项目、小区、楼栋进行任务完成情况的汇总与明细查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,7 +408,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>项目添加、项目信息修改、项目结构建立（分级结构，包括小区、楼、单元）项目分配、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>黑色的是9月初要做完的任务，蓝色是之后做的，红色在蓝色之后，绿色是最后做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员添加/删除、权限管理、密码恢复、登录日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1:需要将相关部分界面完成，并与后台数据库连通（9/12---9/15）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2:需要将相关部分界面完成，并与后台数据库连通（9/16---9/22）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3:需要将相关部分界面完成，并与后台数据库连通（9/23---9/29）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间使用系统进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1，弄到后一个半月做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1,cancel，与其他项合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0,cancel，与其他项合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0:需要将相关部分功能与后台数据库连通，其中与数据统计相关功能可以延后，放置后半月（9/9---9/11）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,12 +557,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -679,61 +751,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -741,105 +855,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -855,7 +951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1141,698 +1237,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="66.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="2.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" style="49" customWidth="1"/>
+    <col min="5" max="9" width="9" style="17"/>
+    <col min="10" max="10" width="58.6640625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="D2" s="46" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D5" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="E11" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="44" t="s">
+      <c r="G17" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="B21" s="31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="56"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="55"/>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="55"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="34"/>
+      <c r="D44" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="58"/>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="59"/>
+    </row>
+    <row r="52" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="1:8" s="48" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="47"/>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-    </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
-    </row>
-    <row r="49" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A52" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27" t="s">
+      <c r="C58" s="25"/>
+      <c r="D58" s="60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B18:C18"/>
+  <mergeCells count="40">
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
